--- a/subnational maps/TBSubnational/Data/MNG.xlsx
+++ b/subnational maps/TBSubnational/Data/MNG.xlsx
@@ -1,72 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="11190"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="TBSubNat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>ADMINISTRATOR</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Data is not available
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Data includes only smear positive cases. Should we include smear negative, EPTB?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">includes only SS+ cases. Should we include SS(-)?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -159,9 +107,6 @@
   </si>
   <si>
     <t>Uvs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -178,15 +123,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,21 +153,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,56 +463,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1200" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="C24" sqref="C24"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -577,23 +508,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>84765</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>21</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -603,24 +534,23 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>77249</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>14</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -630,24 +560,23 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>89642</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>11</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -657,24 +586,23 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>54333</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>9</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -684,24 +612,23 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>96974</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>265</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>118</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>106</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -711,24 +638,23 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>70745</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>150</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>82</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>75</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -738,24 +664,23 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>60754</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>52</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>48</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -765,24 +690,23 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>37750</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -792,24 +716,23 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>64422</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>13</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -819,24 +742,23 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>53335</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -846,24 +768,23 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>14084</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
         <v>6</v>
       </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -873,24 +794,23 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>66957</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>143</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>54</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>50</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -900,24 +820,23 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>77785</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>14</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -927,24 +846,23 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>116790</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>109</v>
       </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>37</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>33</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -954,24 +872,23 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>64400</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>13</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>11</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -981,24 +898,23 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>92159</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>95</v>
       </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>49</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>43</v>
       </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1008,24 +924,23 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>101686</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>73</v>
       </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>28</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>25</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1035,24 +950,23 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>101392</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>226</v>
       </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>113</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>103</v>
       </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1062,24 +976,23 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>52214</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>45</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>44</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1089,24 +1002,23 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>86262</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>98</v>
       </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>46</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>40</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1116,24 +1028,23 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1302615</v>
       </c>
-      <c r="E22">
-        <v>2429</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22">
-        <v>960</v>
-      </c>
-      <c r="H22">
-        <v>785</v>
-      </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>2366</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>931</v>
+      </c>
+      <c r="H22" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1143,41 +1054,23 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>73404</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>18</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>18</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A25:I25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>